--- a/tests/data/nomenclature/GPCRmd_B2AR_nomenclature_test.xlsx
+++ b/tests/data/nomenclature/GPCRmd_B2AR_nomenclature_test.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t xml:space="preserve">protein_segment</t>
   </si>
@@ -28,13 +28,43 @@
     <t xml:space="preserve">AAresSeq</t>
   </si>
   <si>
+    <t xml:space="preserve">display_generic_number</t>
+  </si>
+  <si>
     <t xml:space="preserve">BW</t>
   </si>
   <si>
+    <t xml:space="preserve">Wootten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fungal</t>
+  </si>
+  <si>
     <t xml:space="preserve">GPCRdb(A)</t>
   </si>
   <si>
-    <t xml:space="preserve">display_generic_number</t>
+    <t xml:space="preserve">GPCRdb(B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPCRdb(C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPCRdb(F)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPCRdb(D)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliveira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BS</t>
   </si>
   <si>
     <t xml:space="preserve">TM1</t>
@@ -43,19 +73,67 @@
     <t xml:space="preserve">Q26</t>
   </si>
   <si>
+    <t xml:space="preserve">1.25x25</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.25</t>
   </si>
   <si>
-    <t xml:space="preserve">1.25x25</t>
+    <t xml:space="preserve">1.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.29x29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.22x22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.27x27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I:-08</t>
   </si>
   <si>
     <t xml:space="preserve">E27</t>
   </si>
   <si>
+    <t xml:space="preserve">1.26x26</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.26</t>
   </si>
   <si>
-    <t xml:space="preserve">1.26x26</t>
+    <t xml:space="preserve">1.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.30x30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.23x23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.28x28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I:-07</t>
   </si>
   <si>
     <t xml:space="preserve">ICL1</t>
@@ -64,40 +142,94 @@
     <t xml:space="preserve">E62</t>
   </si>
   <si>
+    <t xml:space="preserve">12.48x48</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.48</t>
   </si>
   <si>
-    <t xml:space="preserve">12.48x48</t>
-  </si>
-  <si>
     <t xml:space="preserve">R63</t>
   </si>
   <si>
+    <t xml:space="preserve">12.49x49</t>
+  </si>
+  <si>
     <t xml:space="preserve">12.49</t>
   </si>
   <si>
-    <t xml:space="preserve">12.49x49</t>
-  </si>
-  <si>
     <t xml:space="preserve">TM2</t>
   </si>
   <si>
     <t xml:space="preserve">T66</t>
   </si>
   <si>
+    <t xml:space="preserve">2.37x37</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.37</t>
   </si>
   <si>
-    <t xml:space="preserve">2.37x37</t>
+    <t xml:space="preserve">2.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44x44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.33x33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38x38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40x40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II:-04</t>
   </si>
   <si>
     <t xml:space="preserve">V67</t>
   </si>
   <si>
-    <t xml:space="preserve">2.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.38x38</t>
+    <t xml:space="preserve">2.45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.45x45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.34x34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.39x39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.41x41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">II:-03</t>
   </si>
 </sst>
 </file>
@@ -112,7 +244,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -192,22 +323,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -217,158 +348,356 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="62" zoomScaleNormal="62" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.94921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>18</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>22</v>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>25</v>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>